--- a/PROGRAMA GUIA DIANA.xlsx
+++ b/PROGRAMA GUIA DIANA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latitude\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyecto_final_civil\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB35D8DF-E6AE-4F1C-9740-0324349D9C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INGRESO DE DATOS" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="CALIDAD DE AGUA" sheetId="3" r:id="rId5"/>
     <sheet name="RESULTADOS" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,14 +417,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +531,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -673,10 +682,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,7 +795,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -803,13 +812,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -860,8 +869,15 @@
     <xf numFmtId="4" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,13 +895,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1201,21 +1211,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="59" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="64" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="34.88671875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="64" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>38</v>
       </c>
@@ -1223,7 +1233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>39</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>113</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>43</v>
       </c>
@@ -1279,7 +1289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>104</v>
       </c>
@@ -1287,7 +1297,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>105</v>
       </c>
@@ -1301,94 +1311,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH135"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1414,48 +1424,48 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76" t="s">
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76" t="s">
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="76"/>
+      <c r="W4" s="79"/>
     </row>
     <row r="5" spans="1:23" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>0</v>
       </c>
@@ -1546,7 +1556,7 @@
       <c r="V6" s="10"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -1637,7 +1647,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f t="shared" ref="A8:A26" si="10">+A7+1</f>
         <v>2</v>
@@ -1682,7 +1692,7 @@
         <v>36820</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" ref="L8:L26" si="13">+D8+E8+H8+I8+J8+G8</f>
+        <f t="shared" ref="L8:L25" si="13">+D8+E8+H8+I8+J8+G8</f>
         <v>42343</v>
       </c>
       <c r="M8" s="21">
@@ -1730,7 +1740,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <f t="shared" si="10"/>
         <v>3</v>
@@ -1739,7 +1749,7 @@
         <v>2024</v>
       </c>
       <c r="C9" s="19">
-        <f t="shared" ref="C8:C26" si="21">ROUNDUP($C$7*POWER((1+$E$28),A9),0)</f>
+        <f t="shared" ref="C9:C25" si="21">ROUNDUP($C$7*POWER((1+$E$28),A9),0)</f>
         <v>539</v>
       </c>
       <c r="D9" s="20">
@@ -1823,7 +1833,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -1916,7 +1926,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -2009,7 +2019,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -2102,7 +2112,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -2195,7 +2205,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -2288,7 +2298,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -2381,7 +2391,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -2474,7 +2484,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -2567,7 +2577,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -2660,7 +2670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -2753,7 +2763,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -2846,7 +2856,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -2939,7 +2949,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -3032,7 +3042,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <f t="shared" si="10"/>
         <v>17</v>
@@ -3125,7 +3135,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <f t="shared" si="10"/>
         <v>18</v>
@@ -3218,7 +3228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <f t="shared" si="10"/>
         <v>19</v>
@@ -3322,7 +3332,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -3379,7 +3389,7 @@
         <v>99015</v>
       </c>
       <c r="O26" s="70">
-        <f t="shared" si="15"/>
+        <f>+N26/86400</f>
         <v>1.1460069444444445</v>
       </c>
       <c r="P26" s="70">
@@ -3426,7 +3436,7 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
@@ -3486,7 +3496,7 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="2"/>
       <c r="C28" s="44" t="s">
@@ -3516,14 +3526,14 @@
       <c r="V28" s="42"/>
       <c r="W28" s="42"/>
     </row>
-    <row r="29" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="44"/>
-      <c r="E29" s="80">
+      <c r="E29" s="75">
         <f>+'INGRESO DE DATOS'!B7</f>
         <v>70</v>
       </c>
@@ -3546,7 +3556,7 @@
       <c r="V29" s="50"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="44" t="s">
@@ -3575,7 +3585,7 @@
       <c r="V30" s="50"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="44" t="s">
@@ -3590,11 +3600,11 @@
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
-      <c r="K31" s="78">
+      <c r="K31" s="73">
         <f>ROUND(C7*POWER((1+E28),A26),0)</f>
         <v>819</v>
       </c>
-      <c r="L31" s="79">
+      <c r="L31" s="74">
         <f>(K31*E29)</f>
         <v>57330</v>
       </c>
@@ -3616,7 +3626,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:34" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="44" t="s">
@@ -3645,7 +3655,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="44" t="s">
@@ -3677,7 +3687,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="44" t="s">
@@ -3706,7 +3716,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="44" t="s">
@@ -3735,7 +3745,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="44" t="s">
@@ -3764,7 +3774,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="44" t="s">
@@ -3793,7 +3803,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="44" t="s">
@@ -3824,7 +3834,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="44" t="s">
@@ -3855,7 +3865,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="44"/>
@@ -3880,7 +3890,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3905,7 +3915,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3930,7 +3940,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3955,7 +3965,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3980,7 +3990,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4005,7 +4015,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4030,7 +4040,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4055,7 +4065,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4080,7 +4090,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4105,7 +4115,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4130,7 +4140,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4155,7 +4165,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4180,7 +4190,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4205,7 +4215,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4230,7 +4240,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4255,7 +4265,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4280,7 +4290,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4305,7 +4315,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4330,7 +4340,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4355,7 +4365,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4380,7 +4390,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4405,7 +4415,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4430,7 +4440,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4455,7 +4465,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4480,7 +4490,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4505,7 +4515,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4530,7 +4540,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4555,7 +4565,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4580,7 +4590,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4605,7 +4615,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4630,7 +4640,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4655,7 +4665,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4680,7 +4690,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4705,7 +4715,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4730,7 +4740,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4755,7 +4765,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4780,7 +4790,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4805,7 +4815,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4830,7 +4840,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4855,7 +4865,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4880,7 +4890,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4905,7 +4915,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4930,7 +4940,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4955,7 +4965,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4980,7 +4990,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5005,7 +5015,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5030,7 +5040,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5055,7 +5065,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5080,7 +5090,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5105,7 +5115,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5130,7 +5140,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5155,7 +5165,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5180,7 +5190,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5205,7 +5215,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5230,7 +5240,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5255,7 +5265,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5280,7 +5290,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5305,7 +5315,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5330,7 +5340,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5355,7 +5365,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5380,7 +5390,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5405,7 +5415,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5430,7 +5440,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5455,7 +5465,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5480,7 +5490,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5505,7 +5515,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5530,7 +5540,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5555,7 +5565,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5580,7 +5590,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5605,7 +5615,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5630,7 +5640,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5655,7 +5665,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5680,7 +5690,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5705,7 +5715,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5730,7 +5740,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5755,7 +5765,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5780,7 +5790,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5805,7 +5815,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5830,7 +5840,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5855,7 +5865,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5880,7 +5890,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5905,7 +5915,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5930,7 +5940,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5955,7 +5965,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5980,7 +5990,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6005,7 +6015,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6030,7 +6040,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6055,7 +6065,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6080,7 +6090,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6105,7 +6115,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6130,7 +6140,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6155,7 +6165,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6180,7 +6190,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6205,7 +6215,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6230,7 +6240,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6272,20 +6282,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="63"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -6293,7 +6303,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -6309,7 +6319,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -6317,7 +6327,7 @@
         <v>1.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -6326,7 +6336,7 @@
         <v>242.54999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -6335,34 +6345,38 @@
         <v>0.32339999999999997</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="81"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="60" customWidth="1"/>
-    <col min="2" max="16384" width="29.28515625" style="60"/>
+    <col min="1" max="1" width="31.33203125" style="60" customWidth="1"/>
+    <col min="2" max="16384" width="29.33203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>51</v>
       </c>
@@ -6370,7 +6384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>54</v>
       </c>
@@ -6378,7 +6392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>57</v>
       </c>
@@ -6386,7 +6400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>59</v>
       </c>
@@ -6394,7 +6408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>62</v>
       </c>
@@ -6402,7 +6416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>65</v>
       </c>
@@ -6410,7 +6424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>68</v>
       </c>
@@ -6422,7 +6436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>71</v>
       </c>
@@ -6430,7 +6444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>74</v>
       </c>
@@ -6438,7 +6452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>76</v>
       </c>
@@ -6446,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>79</v>
       </c>
@@ -6454,7 +6468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>82</v>
       </c>
@@ -6462,7 +6476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>84</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>86</v>
       </c>
@@ -6478,7 +6492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>89</v>
       </c>
@@ -6486,7 +6500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>90</v>
       </c>
@@ -6494,7 +6508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>92</v>
       </c>
@@ -6502,7 +6516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>94</v>
       </c>
@@ -6519,21 +6533,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="C4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>48</v>
       </c>
@@ -6544,7 +6558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>51</v>
       </c>
@@ -6555,7 +6569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
         <v>54</v>
       </c>
@@ -6566,7 +6580,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>57</v>
       </c>
@@ -6577,7 +6591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>59</v>
       </c>
@@ -6588,7 +6602,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>62</v>
       </c>
@@ -6599,7 +6613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>65</v>
       </c>
@@ -6610,7 +6624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>68</v>
       </c>
@@ -6621,7 +6635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>71</v>
       </c>
@@ -6632,7 +6646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>74</v>
       </c>
@@ -6643,7 +6657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>76</v>
       </c>
@@ -6654,7 +6668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>79</v>
       </c>
@@ -6665,7 +6679,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="57" t="s">
         <v>82</v>
       </c>
@@ -6676,7 +6690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>84</v>
       </c>
@@ -6687,7 +6701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>86</v>
       </c>
@@ -6698,7 +6712,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>89</v>
       </c>
@@ -6707,7 +6721,7 @@
       </c>
       <c r="C16" s="58"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57" t="s">
         <v>90</v>
       </c>
@@ -6716,7 +6730,7 @@
       </c>
       <c r="C17" s="58"/>
     </row>
-    <row r="18" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="57" t="s">
         <v>92</v>
       </c>
@@ -6725,7 +6739,7 @@
       </c>
       <c r="C18" s="58"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="57" t="s">
         <v>94</v>
       </c>
@@ -6740,20 +6754,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -6762,7 +6776,7 @@
         <v>1.1460069444444445</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6771,7 +6785,7 @@
         <v>1.9100115740740742</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -6780,7 +6794,7 @@
         <v>6103.9630118890354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -6788,7 +6802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
